--- a/biology/Botanique/Hymenophyllum_malingii/Hymenophyllum_malingii.xlsx
+++ b/biology/Botanique/Hymenophyllum_malingii/Hymenophyllum_malingii.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hymenophyllum malingii est une fougère de la famille des Hyménophyllacées endémique de Nouvelle-Zélande.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce a les caractéristiques suivantes :
 son rhizome est long et filiforme ;
@@ -523,7 +537,7 @@
 les segments de la partie supérieure du limbe sont presque tubulaires ;
 Les sores, solitaires, sont portés par l'extrémité d'un segment ;
 une columelle, de la taille du sore, porte les grappes denses de sporanges, et entièrement recouvertes par l'indusie.
-Cette espèce compte, comme le sous-genre, un nombre de base de 36 chromosomes[1].
+Cette espèce compte, comme le sous-genre, un nombre de base de 36 chromosomes.
 </t>
         </is>
       </c>
@@ -552,15 +566,17 @@
           <t>Historique et position taxonomique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Les différentes positions dans la famille des Hymenophyllacées illustrent les difficultés de classement de cette espèce.
-Cette fougère a été collectée en Nouvelle-Zélande par Christopher Louis Maling (1841 - 1916)[2]. William Jackson Hooker en produit la description en 1862 et la lui dédie[3]. Il la classe dans le genre Trichomanes[4]. Ce classement s'explique mal : la forme de l'indusie (à deux lèvres) aurait dû la faire classer naturellement dans le genre Hymenophyllum.
-En 1864, Georg Heinrich Mettenius la reclasse dans le genre Hymenophyllum[5].
-Edwin Bingham Copeland la reclasse d'abord en 1937 dans un sous-genre du genre Hymenophyllum : Hymenophyllum subgen. Apteropteris[6] puis, en 1938, dans le genre Apteropteris[7].
-En 1968, Conrad Vernon Morton la place dans le genre Hymenophyllum, sous-genre Sphaerocionium, section Apteropteris[8]
-En 1982, Kunio Iwatsuki la transfère dans le genre Sphaerocionium[9].
-Enfin, en 2006, Atsushi Ebihara et Kunio Iwatsuki, dans leur travail de révision des Hymenophyllacées, la maintiennent dans le genre Hymenophyllum, et la placent dans le sous-genre Sphaerocionium[10].
+Cette fougère a été collectée en Nouvelle-Zélande par Christopher Louis Maling (1841 - 1916). William Jackson Hooker en produit la description en 1862 et la lui dédie. Il la classe dans le genre Trichomanes. Ce classement s'explique mal : la forme de l'indusie (à deux lèvres) aurait dû la faire classer naturellement dans le genre Hymenophyllum.
+En 1864, Georg Heinrich Mettenius la reclasse dans le genre Hymenophyllum.
+Edwin Bingham Copeland la reclasse d'abord en 1937 dans un sous-genre du genre Hymenophyllum : Hymenophyllum subgen. Apteropteris puis, en 1938, dans le genre Apteropteris.
+En 1968, Conrad Vernon Morton la place dans le genre Hymenophyllum, sous-genre Sphaerocionium, section Apteropteris
+En 1982, Kunio Iwatsuki la transfère dans le genre Sphaerocionium.
+Enfin, en 2006, Atsushi Ebihara et Kunio Iwatsuki, dans leur travail de révision des Hymenophyllacées, la maintiennent dans le genre Hymenophyllum, et la placent dans le sous-genre Sphaerocionium.
 Il en résulte donc les synonymes suivants :
 Apteropteris malingii (Hook.) Copel.
 Sphaerocionium malingii (Hook.) K.Iwats.
@@ -592,7 +608,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette fougère, plutôt épiphyte de troncs d'arbres, en particulier d'arbres morts, formant des colonies denses à clairsemées, aux frondes pendantes, est présente uniquement en Nouvelle-Zélande, dans les îles du Nord et du Sud.
 </t>
